--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C751D8A9-99F1-46E0-8344-B4E9EC328C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="2" r:id="rId1"/>
     <sheet name="CPU V1.0" sheetId="1" r:id="rId2"/>
     <sheet name="PWR V1.0" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="RF V2.0" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -192,225 +192,285 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>HOLE - circle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLE - 장홀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIF3H-20PA-2.54DSA</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_10X2</t>
+  </si>
+  <si>
+    <t>PN Miss 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4 Core size 확대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>발열 개선을 위해 큰 size 사용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink FET Hole 위치 miss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top view로 작성하여 Mirror 되어 있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R67 value miss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL의 V_PN, V_Desc 오기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5025FR15</t>
+  </si>
+  <si>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>PL의 V_PN, V_Desc 오기 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5025F101CS</t>
+  </si>
+  <si>
+    <t>ST-LINK connection error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTRST Pull-up NC 처리 후 정상 동작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6, R7, R9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-LINK Connection error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG1 Pin-map과 DL JIG pin-map miss match</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DL JIG에서 CON를 Bottom Solder </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF path tune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1,2가 반대로 실장되어 있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SILK가 반대로 되어있음, PCB 수정 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIG 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 SCH, PL 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 PCB 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U12 input에 Pull-Down 저항 없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 SCH, PCB, PL 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 SCH, PCB, PL 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull-Down 4.7K 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C42,C17 : 47uF/100V/8PI -&gt; 47uF/63V/8PI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C42,C17 : 47uF/100V/8PI -&gt; 맞는 내압 부품 없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R85, R86, R87</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffer input에 Pull-Down 저항 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없이 진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3.0 SCH, PL 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>PCB Library miss - Hole</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HOLE - circle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOLE - 장홀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HD1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIF3H-20PA-2.54DSA</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_10X2</t>
-  </si>
-  <si>
-    <t>PN Miss 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4 Core size 확대</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>발열 개선을 위해 큰 size 사용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat Sink FET Hole 위치 miss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top view로 작성하여 Mirror 되어 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R67 value miss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL의 V_PN, V_Desc 오기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC5025FR15</t>
-  </si>
-  <si>
-    <t>R67</t>
-  </si>
-  <si>
-    <t>PL의 V_PN, V_Desc 오기 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC5025F101CS</t>
-  </si>
-  <si>
-    <t>ST-LINK connection error</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNTRST Pull-up NC 처리 후 정상 동작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6, R7, R9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10K</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST-LINK Connection error</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTAG1 Pin-map과 DL JIG pin-map miss match</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DL JIG에서 CON를 Bottom Solder </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF path tune</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED1,2가 반대로 실장되어 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SILK가 반대로 되어있음, PCB 수정 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIG 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 SCH, PL 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 PCB 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U12 input에 Pull-Down 저항 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 SCH, PCB, PL 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 SCH, PCB, PL 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pull-Down 4.7K 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C42,C17 : 47uF/100V/8PI -&gt; 47uF/63V/8PI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C42,C17 : 47uF/100V/8PI -&gt; 맞는 내압 부품 없음</t>
+    <t>PCB Library miss 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED/CHIP/2012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED-2012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Generator - RF V2.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -809,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1228,6 +1288,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1442,7 +1515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1507,12 +1580,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1557,9 +1624,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="51" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="9" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,6 +1631,18 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,98 +1652,110 @@
     <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="34" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="34" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="20% - 강조색1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색1 2" xfId="53"/>
     <cellStyle name="20% - 강조색2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색2 2" xfId="56"/>
     <cellStyle name="20% - 강조색3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 강조색3 2" xfId="59"/>
     <cellStyle name="20% - 강조색4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 강조색4 2" xfId="62"/>
     <cellStyle name="20% - 강조색5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 강조색5 2" xfId="65"/>
     <cellStyle name="20% - 강조색6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 강조색6 2" xfId="68"/>
     <cellStyle name="40% - 강조색1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 강조색1 2" xfId="54"/>
     <cellStyle name="40% - 강조색2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 강조색2 2" xfId="57"/>
     <cellStyle name="40% - 강조색3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 강조색3 2" xfId="60"/>
     <cellStyle name="40% - 강조색4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 강조색4 2" xfId="63"/>
     <cellStyle name="40% - 강조색5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 강조색5 2" xfId="66"/>
     <cellStyle name="40% - 강조색6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - 강조색6 2" xfId="69"/>
     <cellStyle name="60% - 강조색1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="60% - 강조색1 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - 강조색1 2" xfId="45"/>
+    <cellStyle name="60% - 강조색1 3" xfId="55"/>
     <cellStyle name="60% - 강조색2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="60% - 강조색2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="60% - 강조색2 2" xfId="46"/>
+    <cellStyle name="60% - 강조색2 3" xfId="58"/>
     <cellStyle name="60% - 강조색3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="60% - 강조색3 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="60% - 강조색3 2" xfId="47"/>
+    <cellStyle name="60% - 강조색3 3" xfId="61"/>
     <cellStyle name="60% - 강조색4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="60% - 강조색4 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="60% - 강조색4 2" xfId="48"/>
+    <cellStyle name="60% - 강조색4 3" xfId="64"/>
     <cellStyle name="60% - 강조색5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="60% - 강조색5 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="60% - 강조색5 2" xfId="49"/>
+    <cellStyle name="60% - 강조색5 3" xfId="67"/>
     <cellStyle name="60% - 강조색6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="60% - 강조색6 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="60% - 강조색6 2" xfId="50"/>
+    <cellStyle name="60% - 강조색6 3" xfId="70"/>
     <cellStyle name="강조색1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="21" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="25" builtinId="37" customBuiltin="1"/>
@@ -1677,10 +1765,10 @@
     <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="메모 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="메모 2" xfId="42"/>
+    <cellStyle name="메모 3" xfId="52"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="보통 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="보통 2" xfId="44"/>
     <cellStyle name="설명 텍스트" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1691,12 +1779,12 @@
     <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="제목 5" xfId="43"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="표준 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="표준 2" xfId="41"/>
+    <cellStyle name="표준 3" xfId="51"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1754,7 +1842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1787,26 +1875,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1839,23 +1910,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2031,33 +2085,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="43.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -2086,36 +2140,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="24">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>43857</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J5" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2140,7 +2194,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2148,24 +2202,24 @@
         <v>43866</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2173,180 +2227,190 @@
         <v>43866</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="30">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="43">
         <v>43868</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="28">
+        <v>6</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="28">
+        <v>7</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J11" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="30">
-        <v>6</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="30">
-        <v>7</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="46">
         <v>43869</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J12" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7" t="s">
+      <c r="F13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I13" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2359,7 +2423,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2372,7 +2436,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2385,7 +2449,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2398,7 +2462,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2411,7 +2475,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2424,7 +2488,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -2435,7 +2499,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
@@ -2446,7 +2510,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -2458,8 +2522,9 @@
       <c r="J23" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2468,35 +2533,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -2531,294 +2596,318 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="24">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="53">
         <v>43866</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>6</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="30">
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="31">
+      <c r="C6" s="54"/>
+      <c r="D6" s="30">
         <v>2</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="30">
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="54">
         <v>43868</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>5</v>
       </c>
       <c r="E7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="28">
+        <v>4</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="30">
+      <c r="K8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="28">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43">
+        <v>43869</v>
+      </c>
+      <c r="D9" s="50">
+        <v>2</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="30">
+        <v>100</v>
+      </c>
+      <c r="G9" s="30">
+        <v>470</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="28">
+        <v>6</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="30">
+        <v>100</v>
+      </c>
+      <c r="G10" s="30">
+        <v>47</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="28">
+        <v>7</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="30">
+        <v>51</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="28">
+        <v>8</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="30">
+        <v>51</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="28">
+        <v>9</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="30">
+        <v>51</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="28">
+        <v>10</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="30">
         <v>4</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="58">
-        <v>43869</v>
-      </c>
-      <c r="D9" s="46">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E14" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="6">
-        <v>470</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="6">
-        <v>100</v>
-      </c>
-      <c r="G10" s="6">
-        <v>47</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="6">
-        <v>51</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="6">
-        <v>51</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I14" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2828,12 +2917,12 @@
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2843,12 +2932,12 @@
       <c r="K18" s="5"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="4">
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -2859,14 +2948,15 @@
       <c r="L19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C9:C14"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2875,35 +2965,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -2938,90 +3028,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="24">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="57">
         <v>43866</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>3</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
+        <v>2</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="29">
+        <v>4</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="28" t="s">
+      <c r="F6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="28">
+        <v>3</v>
+      </c>
+      <c r="C7" s="60">
+        <v>43869</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="28" t="s">
+      <c r="J7" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="30">
-        <v>2</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="31">
-        <v>4</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -3032,11 +3140,11 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -3047,11 +3155,11 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -3062,11 +3170,11 @@
       <c r="K10" s="6"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -3077,11 +3185,11 @@
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -3092,11 +3200,11 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -3107,11 +3215,11 @@
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -3122,11 +3230,11 @@
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -3137,11 +3245,11 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -3152,11 +3260,11 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -3167,11 +3275,11 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -3182,11 +3290,11 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -3208,12 +3316,308 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="61">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="65"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48770A-F48C-4DA9-873D-161CDFB0DC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="2" r:id="rId1"/>
@@ -14,19 +15,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -464,13 +457,33 @@
   </si>
   <si>
     <t>RF Generator - RF V2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink 방향 90도 회전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람이 PCB 양쪽으로 빠질수 있도록 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 센서 위치 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink 회전에 의한 변경 사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재작업</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1643,6 +1656,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,75 +1724,51 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="20% - 강조색1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색1 2" xfId="53"/>
+    <cellStyle name="20% - 강조색1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - 강조색2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2 2" xfId="56"/>
+    <cellStyle name="20% - 강조색2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - 강조색3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3 2" xfId="59"/>
+    <cellStyle name="20% - 강조색3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - 강조색4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4 2" xfId="62"/>
+    <cellStyle name="20% - 강조색4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - 강조색5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5 2" xfId="65"/>
+    <cellStyle name="20% - 강조색5 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - 강조색6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6 2" xfId="68"/>
+    <cellStyle name="20% - 강조색6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - 강조색1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1 2" xfId="54"/>
+    <cellStyle name="40% - 강조색1 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - 강조색2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2 2" xfId="57"/>
+    <cellStyle name="40% - 강조색2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - 강조색3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3 2" xfId="60"/>
+    <cellStyle name="40% - 강조색3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - 강조색4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4 2" xfId="63"/>
+    <cellStyle name="40% - 강조색4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - 강조색5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5 2" xfId="66"/>
+    <cellStyle name="40% - 강조색5 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - 강조색6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6 2" xfId="69"/>
+    <cellStyle name="40% - 강조색6 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - 강조색1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1 2" xfId="45"/>
-    <cellStyle name="60% - 강조색1 3" xfId="55"/>
+    <cellStyle name="60% - 강조색1 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - 강조색1 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="60% - 강조색2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2 2" xfId="46"/>
-    <cellStyle name="60% - 강조색2 3" xfId="58"/>
+    <cellStyle name="60% - 강조색2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - 강조색2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% - 강조색3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3 2" xfId="47"/>
-    <cellStyle name="60% - 강조색3 3" xfId="61"/>
+    <cellStyle name="60% - 강조색3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="60% - 강조색3 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="60% - 강조색4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4 2" xfId="48"/>
-    <cellStyle name="60% - 강조색4 3" xfId="64"/>
+    <cellStyle name="60% - 강조색4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="60% - 강조색4 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% - 강조색5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5 2" xfId="49"/>
-    <cellStyle name="60% - 강조색5 3" xfId="67"/>
+    <cellStyle name="60% - 강조색5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="60% - 강조색5 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="60% - 강조색6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6 2" xfId="50"/>
-    <cellStyle name="60% - 강조색6 3" xfId="70"/>
+    <cellStyle name="60% - 강조색6 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="60% - 강조색6 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="강조색1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="21" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="25" builtinId="37" customBuiltin="1"/>
@@ -1765,10 +1778,10 @@
     <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모 2" xfId="42"/>
-    <cellStyle name="메모 3" xfId="52"/>
+    <cellStyle name="메모 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="메모 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="보통 2" xfId="44"/>
+    <cellStyle name="보통 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="설명 텍스트" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1779,12 +1792,12 @@
     <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 5" xfId="43"/>
+    <cellStyle name="제목 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="41"/>
-    <cellStyle name="표준 3" xfId="51"/>
+    <cellStyle name="표준 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="표준 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1842,7 +1855,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1875,9 +1888,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1910,6 +1940,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2085,33 +2132,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="43.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -2140,7 +2187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -2169,7 +2216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2194,7 +2241,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2219,7 +2266,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2241,14 +2288,16 @@
       <c r="H8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="51">
         <v>43868</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -2273,11 +2322,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="30" t="s">
         <v>56</v>
       </c>
@@ -2300,11 +2349,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="30" t="s">
         <v>56</v>
       </c>
@@ -2327,11 +2376,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="54">
         <v>43869</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2356,11 +2405,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
@@ -2383,11 +2432,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="5" t="s">
         <v>92</v>
       </c>
@@ -2410,33 +2459,55 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="C15" s="12">
+        <v>43870</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2449,7 +2520,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2462,7 +2533,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2475,7 +2546,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2488,7 +2559,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -2499,7 +2570,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
@@ -2510,7 +2581,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -2533,35 +2604,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -2596,11 +2667,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="61">
         <v>43866</v>
       </c>
       <c r="D5" s="24">
@@ -2629,11 +2700,11 @@
       </c>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="30">
         <v>2</v>
       </c>
@@ -2660,11 +2731,11 @@
       </c>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="62">
         <v>43868</v>
       </c>
       <c r="D7" s="30">
@@ -2693,11 +2764,11 @@
       </c>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
@@ -2724,14 +2795,14 @@
       </c>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="51">
         <v>43869</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="58">
         <v>2</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -2743,26 +2814,26 @@
       <c r="G9" s="30">
         <v>470</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="57" t="s">
         <v>101</v>
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="30" t="s">
         <v>76</v>
       </c>
@@ -2772,18 +2843,18 @@
       <c r="G10" s="30">
         <v>47</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="49"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="33"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="30" t="s">
         <v>77</v>
       </c>
@@ -2793,18 +2864,18 @@
       <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="49"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="30" t="s">
         <v>78</v>
       </c>
@@ -2814,18 +2885,18 @@
       <c r="G12" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="49"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="30" t="s">
         <v>95</v>
       </c>
@@ -2835,17 +2906,17 @@
       <c r="G13" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="49"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="30">
         <v>4</v>
       </c>
@@ -2872,7 +2943,7 @@
       </c>
       <c r="L14" s="33"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2887,7 +2958,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2902,7 +2973,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2917,7 +2988,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2932,7 +3003,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -2965,35 +3036,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -3028,11 +3099,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="65">
         <v>43866</v>
       </c>
       <c r="D5" s="23">
@@ -3061,11 +3132,11 @@
       </c>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="29">
         <v>4</v>
       </c>
@@ -3092,11 +3163,11 @@
       </c>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="45">
         <v>43869</v>
       </c>
       <c r="D7" s="29">
@@ -3125,11 +3196,11 @@
       </c>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -3140,11 +3211,11 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -3155,11 +3226,11 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -3170,11 +3241,11 @@
       <c r="K10" s="6"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -3185,11 +3256,11 @@
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -3200,11 +3271,11 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -3215,11 +3286,11 @@
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -3230,11 +3301,11 @@
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -3245,11 +3316,11 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -3260,11 +3331,11 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -3275,11 +3346,11 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -3290,11 +3361,11 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -3316,35 +3387,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -3379,26 +3450,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="61">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="46">
         <v>1</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="65"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="50"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -3409,11 +3480,11 @@
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -3424,11 +3495,11 @@
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -3439,11 +3510,11 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -3454,11 +3525,11 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -3469,11 +3540,11 @@
       <c r="K10" s="6"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -3484,11 +3555,11 @@
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -3499,11 +3570,11 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -3514,11 +3585,11 @@
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -3529,11 +3600,11 @@
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -3544,11 +3615,11 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -3559,11 +3630,11 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -3574,11 +3645,11 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -3589,11 +3660,11 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -3612,12 +3683,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48770A-F48C-4DA9-873D-161CDFB0DC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="2" r:id="rId1"/>
@@ -483,7 +482,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1728,47 +1727,47 @@
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="20% - 강조색1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색1 2" xfId="53"/>
     <cellStyle name="20% - 강조색2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색2 2" xfId="56"/>
     <cellStyle name="20% - 강조색3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 강조색3 2" xfId="59"/>
     <cellStyle name="20% - 강조색4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 강조색4 2" xfId="62"/>
     <cellStyle name="20% - 강조색5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 강조색5 2" xfId="65"/>
     <cellStyle name="20% - 강조색6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 강조색6 2" xfId="68"/>
     <cellStyle name="40% - 강조색1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 강조색1 2" xfId="54"/>
     <cellStyle name="40% - 강조색2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 강조색2 2" xfId="57"/>
     <cellStyle name="40% - 강조색3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 강조색3 2" xfId="60"/>
     <cellStyle name="40% - 강조색4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 강조색4 2" xfId="63"/>
     <cellStyle name="40% - 강조색5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 강조색5 2" xfId="66"/>
     <cellStyle name="40% - 강조색6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - 강조색6 2" xfId="69"/>
     <cellStyle name="60% - 강조색1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="60% - 강조색1 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - 강조색1 2" xfId="45"/>
+    <cellStyle name="60% - 강조색1 3" xfId="55"/>
     <cellStyle name="60% - 강조색2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="60% - 강조색2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="60% - 강조색2 2" xfId="46"/>
+    <cellStyle name="60% - 강조색2 3" xfId="58"/>
     <cellStyle name="60% - 강조색3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="60% - 강조색3 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="60% - 강조색3 2" xfId="47"/>
+    <cellStyle name="60% - 강조색3 3" xfId="61"/>
     <cellStyle name="60% - 강조색4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="60% - 강조색4 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="60% - 강조색4 2" xfId="48"/>
+    <cellStyle name="60% - 강조색4 3" xfId="64"/>
     <cellStyle name="60% - 강조색5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="60% - 강조색5 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="60% - 강조색5 2" xfId="49"/>
+    <cellStyle name="60% - 강조색5 3" xfId="67"/>
     <cellStyle name="60% - 강조색6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="60% - 강조색6 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="60% - 강조색6 2" xfId="50"/>
+    <cellStyle name="60% - 강조색6 3" xfId="70"/>
     <cellStyle name="강조색1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="21" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="25" builtinId="37" customBuiltin="1"/>
@@ -1778,10 +1777,10 @@
     <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="메모 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="메모 2" xfId="42"/>
+    <cellStyle name="메모 3" xfId="52"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="보통 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="보통 2" xfId="44"/>
     <cellStyle name="설명 텍스트" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1792,12 +1791,12 @@
     <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="제목 5" xfId="43"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="표준 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="표준 2" xfId="41"/>
+    <cellStyle name="표준 3" xfId="51"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1855,7 +1854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1888,26 +1887,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1940,23 +1922,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2132,33 +2097,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="43.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -2216,7 +2181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2241,7 +2206,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2266,7 +2231,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2293,7 +2258,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
         <v>5</v>
       </c>
@@ -2322,7 +2287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
         <v>6</v>
       </c>
@@ -2349,7 +2314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
         <v>7</v>
       </c>
@@ -2376,7 +2341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2405,7 +2370,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2432,7 +2397,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2459,11 +2424,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="54">
         <v>43870</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2484,11 +2449,11 @@
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
@@ -2507,7 +2472,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2520,7 +2485,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2533,7 +2498,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2546,7 +2511,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2559,7 +2524,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -2570,7 +2535,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
@@ -2581,7 +2546,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -2593,9 +2558,10 @@
       <c r="J23" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,35 +2570,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -2700,7 +2666,7 @@
       </c>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="28">
         <v>2</v>
       </c>
@@ -2731,7 +2697,7 @@
       </c>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
         <v>3</v>
       </c>
@@ -2764,7 +2730,7 @@
       </c>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
         <v>4</v>
       </c>
@@ -2795,7 +2761,7 @@
       </c>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
         <v>5</v>
       </c>
@@ -2828,7 +2794,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
         <v>6</v>
       </c>
@@ -2849,7 +2815,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="33"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
         <v>7</v>
       </c>
@@ -2870,7 +2836,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="28">
         <v>8</v>
       </c>
@@ -2891,7 +2857,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="28">
         <v>9</v>
       </c>
@@ -2912,7 +2878,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="28">
         <v>10</v>
       </c>
@@ -2943,7 +2909,7 @@
       </c>
       <c r="L14" s="33"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2958,7 +2924,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2973,7 +2939,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2988,7 +2954,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -3003,7 +2969,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -3036,35 +3002,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -3132,7 +3098,7 @@
       </c>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="28">
         <v>2</v>
       </c>
@@ -3163,7 +3129,7 @@
       </c>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
         <v>3</v>
       </c>
@@ -3196,7 +3162,7 @@
       </c>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -3211,7 +3177,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -3226,7 +3192,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -3241,7 +3207,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -3256,7 +3222,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -3271,7 +3237,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -3286,7 +3252,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -3301,7 +3267,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -3316,7 +3282,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -3331,7 +3297,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -3346,7 +3312,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -3361,7 +3327,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -3387,35 +3353,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="46">
         <v>1</v>
       </c>
@@ -3465,7 +3431,7 @@
       <c r="K5" s="48"/>
       <c r="L5" s="50"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -3480,7 +3446,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -3495,7 +3461,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -3510,7 +3476,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -3525,7 +3491,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -3540,7 +3506,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -3555,7 +3521,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -3570,7 +3536,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -3585,7 +3551,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -3600,7 +3566,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -3615,7 +3581,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -3630,7 +3596,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -3645,7 +3611,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -3660,7 +3626,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -3683,12 +3649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
@@ -4,494 +4,715 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Issue list" sheetId="2" r:id="rId1"/>
-    <sheet name="CPU V1.0" sheetId="1" r:id="rId2"/>
-    <sheet name="PWR V1.0" sheetId="4" r:id="rId3"/>
-    <sheet name="RF V2.0" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="SET" sheetId="6" r:id="rId1"/>
+    <sheet name="Issue list" sheetId="2" r:id="rId2"/>
+    <sheet name="CPU V1.0" sheetId="1" r:id="rId3"/>
+    <sheet name="PWR V1.0" sheetId="4" r:id="rId4"/>
+    <sheet name="RF V2.0" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="169">
   <si>
     <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Reference</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sheet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Before</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>After</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Applied Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RF Generator - CPU V1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PCB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CPU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>OPEN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Issue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>U4 feedback path에 CAP 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수정 사항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>U4의 Gain이 5.3이상 증가하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>R20을 1K-&gt; 806으로 조정해도 Gain이 0.2만 상승함(계산치 1이상임)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>기존 회로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Jumpper 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RF Gen Issue list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>v1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SCH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PCB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BOM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HD1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Top 배치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bottom 배치 Library</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HEADER PIN과 PCB Library 구별</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>C69</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2.2uF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RF signal만 증폭시키기 위해 Feedback Path에 Bypass CAP 필요함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RF signal만 증폭시키기 위해 Feedback Path에 Bypass CAP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2/5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RF Generator - PWR V1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLE - circle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLE - 장홀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIF3H-20PA-2.54DSA</t>
+  </si>
+  <si>
+    <t>PIN_HEADER_10X2</t>
+  </si>
+  <si>
+    <t>PN Miss 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4 Core size 확대</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발열 개선을 위해 큰 size 사용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink FET Hole 위치 miss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top view로 작성하여 Mirror 되어 있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R67 value miss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL의 V_PN, V_Desc 오기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5025FR15</t>
+  </si>
+  <si>
+    <t>PL의 V_PN, V_Desc 오기 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC5025F101CS</t>
+  </si>
+  <si>
+    <t>ST-LINK connection error</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNTRST Pull-up NC 처리 후 정상 동작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6, R7, R9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-LINK Connection error</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG1 Pin-map과 DL JIG pin-map miss match</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DL JIG에서 CON를 Bottom Solder </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF path tune</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1,2가 반대로 실장되어 있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SILK가 반대로 되어있음, PCB 수정 필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIG 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 SCH, PL 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 PCB 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U12 input에 Pull-Down 저항 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 SCH, PCB, PL 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0 SCH, PCB, PL 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull-Down 4.7K 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C42,C17 : 47uF/100V/8PI -&gt; 47uF/63V/8PI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C42,C17 : 47uF/100V/8PI -&gt; 맞는 내압 부품 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R85, R86, R87</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffer input에 Pull-Down 저항 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없이 진행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3.0 SCH, PL 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB Library miss - Hole</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB Library miss 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED/CHIP/2012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED-2012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Generator - RF V2.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink 방향 90도 회전</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람이 PCB 양쪽으로 빠질수 있도록 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 센서 위치 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Sink 회전에 의한 변경 사항</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재작업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W DL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 3ea</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7_PWR_ENA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_AMP_ENA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2_GPIO_ON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-LINK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V P[W]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V I[A]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>불출</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C23,C25,C26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>F1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOLE - circle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOLE - 장홀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HD1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIF3H-20PA-2.54DSA</t>
-  </si>
-  <si>
-    <t>PIN_HEADER_10X2</t>
-  </si>
-  <si>
-    <t>PN Miss 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100uF/100V-10PI</t>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 밝기 조정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL-HUE35A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4 Core size 확대</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>발열 개선을 위해 큰 size 사용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat Sink FET Hole 위치 miss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top view로 작성하여 Mirror 되어 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R67 value miss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL의 V_PN, V_Desc 오기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC5025FR15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12V LED 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0 ECO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0 ECO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>R67</t>
-  </si>
-  <si>
-    <t>PL의 V_PN, V_Desc 오기 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC5025F101CS</t>
-  </si>
-  <si>
-    <t>ST-LINK connection error</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNTRST Pull-up NC 처리 후 정상 동작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6, R7, R9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10K</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST-LINK Connection error</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R67</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTAG1 Pin-map과 DL JIG pin-map miss match</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DL JIG에서 CON를 Bottom Solder </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF path tune</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED1,2가 반대로 실장되어 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SILK가 반대로 되어있음, PCB 수정 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ECO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIG 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 SCH, PL 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 PCB 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>U12 input에 Pull-Down 저항 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 SCH, PCB, PL 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2.0 SCH, PCB, PL 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pull-Down 4.7K 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C42,C17 : 47uF/100V/8PI -&gt; 47uF/63V/8PI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C42,C17 : 47uF/100V/8PI -&gt; 맞는 내압 부품 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R85, R86, R87</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7K</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffer input에 Pull-Down 저항 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>없이 진행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3.0 SCH, PL 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED1, LED2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB Library miss - Hole</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB Library miss 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED/CHIP/2012</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED-2012</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF Generator - RF V2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat Sink 방향 90도 회전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람이 PCB 양쪽으로 빠질수 있도록 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도 센서 위치 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat Sink 회전에 의한 변경 사항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>재작업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>+12V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>+9V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12V Test point 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cap 없는 경우, 12V DC/DC가 오동작(소음도발생)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEM1이 PL에 빠져 있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;#&quot;00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,7 +909,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,8 +1101,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1313,58 +1552,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,10 +1752,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1385,10 +1761,7 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1397,10 +1770,7 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1409,10 +1779,7 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1421,10 +1788,7 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,101 +1797,11 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1535,7 +1809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1565,31 +1839,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,20 +1905,17 @@
     <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="51" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="51" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,6 +1950,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1723,6 +2080,64 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="36" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="36" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -1800,6 +2215,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2098,10 +2518,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="108"/>
+      <c r="C3" s="109">
+        <v>1</v>
+      </c>
+      <c r="D3" s="112">
+        <v>2</v>
+      </c>
+      <c r="E3" s="112">
+        <v>3</v>
+      </c>
+      <c r="F3" s="109">
+        <v>4</v>
+      </c>
+      <c r="G3" s="109">
+        <v>5</v>
+      </c>
+      <c r="H3" s="110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="55">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E7" s="115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7" s="66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7" s="66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7" s="65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="64">
+        <v>11.99</v>
+      </c>
+      <c r="D8" s="116">
+        <v>11.98</v>
+      </c>
+      <c r="E8" s="116">
+        <v>12</v>
+      </c>
+      <c r="F8" s="64">
+        <v>11.98</v>
+      </c>
+      <c r="G8" s="64">
+        <v>11.98</v>
+      </c>
+      <c r="H8" s="63">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="64">
+        <f t="shared" ref="C9:H9" si="0">C7*C8</f>
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="D9" s="116">
+        <f t="shared" si="0"/>
+        <v>0.83860000000000012</v>
+      </c>
+      <c r="E9" s="116">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F9" s="64">
+        <f t="shared" si="0"/>
+        <v>0.83860000000000012</v>
+      </c>
+      <c r="G9" s="64">
+        <f t="shared" si="0"/>
+        <v>0.83860000000000012</v>
+      </c>
+      <c r="H9" s="63">
+        <f t="shared" si="0"/>
+        <v>0.83860000000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="64">
+        <v>5.03</v>
+      </c>
+      <c r="D10" s="116">
+        <v>5.04</v>
+      </c>
+      <c r="E10" s="116">
+        <v>5.01</v>
+      </c>
+      <c r="F10" s="64">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G10" s="64">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H10" s="63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="64">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="D11" s="116">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="E11" s="116">
+        <v>3.31</v>
+      </c>
+      <c r="F11" s="64">
+        <v>3.28</v>
+      </c>
+      <c r="G11" s="64">
+        <v>3.31</v>
+      </c>
+      <c r="H11" s="63">
+        <v>3.3050000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="64">
+        <v>3.29</v>
+      </c>
+      <c r="D12" s="116">
+        <v>3.28</v>
+      </c>
+      <c r="E12" s="116">
+        <v>3.306</v>
+      </c>
+      <c r="F12" s="64">
+        <v>3.28</v>
+      </c>
+      <c r="G12" s="64">
+        <v>3.31</v>
+      </c>
+      <c r="H12" s="63">
+        <v>3.3029999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="75"/>
+      <c r="C21" s="70">
+        <v>1</v>
+      </c>
+      <c r="D21" s="70">
+        <v>2</v>
+      </c>
+      <c r="E21" s="70">
+        <v>3</v>
+      </c>
+      <c r="F21" s="70">
+        <v>4</v>
+      </c>
+      <c r="G21" s="70">
+        <v>5</v>
+      </c>
+      <c r="H21" s="69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="124" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59">
+        <v>12.13</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59">
+        <v>-12.38</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="58"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="82"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="55"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2166,7 +3173,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>15</v>
@@ -2178,33 +3185,33 @@
         <v>21</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="83">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="84">
         <v>43857</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
@@ -2214,19 +3221,19 @@
         <v>43866</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
@@ -2239,22 +3246,22 @@
         <v>43866</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -2262,119 +3269,119 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="90">
         <v>43868</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>58</v>
-      </c>
       <c r="H9" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="93">
         <v>43869</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="29" t="s">
+      <c r="J12" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
@@ -2382,69 +3389,69 @@
         <v>24</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>91</v>
-      </c>
       <c r="I13" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="93">
         <v>43870</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
@@ -2453,21 +3460,21 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
@@ -2476,11 +3483,21 @@
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="12">
+        <v>43873</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
@@ -2563,18 +3580,18 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2637,7 +3654,7 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="100">
         <v>43866</v>
       </c>
       <c r="D5" s="24">
@@ -2664,13 +3681,15 @@
       <c r="K5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="27" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="30">
         <v>2</v>
       </c>
@@ -2695,84 +3714,90 @@
       <c r="K6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="101">
         <v>43868</v>
       </c>
       <c r="D7" s="30">
         <v>5</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>61</v>
+      <c r="E7" s="106" t="s">
+        <v>156</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="33"/>
+        <v>68</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
       <c r="E8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="I8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="J8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>72</v>
-      </c>
       <c r="K8" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="33"/>
+        <v>68</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="90">
         <v>43869</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="97">
         <v>2</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" s="30">
         <v>100</v>
@@ -2780,28 +3805,30 @@
       <c r="G9" s="30">
         <v>470</v>
       </c>
-      <c r="H9" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="64" t="s">
+      <c r="H9" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="33"/>
+      <c r="K9" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F10" s="30">
         <v>100</v>
@@ -2809,20 +3836,22 @@
       <c r="G10" s="30">
         <v>47</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="33"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="30">
         <v>51</v>
@@ -2830,84 +3859,92 @@
       <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="33"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="30">
         <v>51</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="33"/>
+        <v>66</v>
+      </c>
+      <c r="H12" s="102"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F13" s="30">
         <v>51</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="33"/>
+        <v>93</v>
+      </c>
+      <c r="H13" s="102"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="30">
         <v>4</v>
       </c>
       <c r="E14" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="I14" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>102</v>
-      </c>
       <c r="K14" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="33"/>
+        <v>99</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -2973,7 +4010,7 @@
       <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -2995,18 +4032,18 @@
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="J9:J13"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3069,23 +4106,23 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="104">
         <v>43866</v>
       </c>
       <c r="D5" s="23">
         <v>3</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>32</v>
@@ -3096,137 +4133,211 @@
       <c r="K5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="27" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="29">
         <v>4</v>
       </c>
       <c r="E6" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>43869</v>
       </c>
       <c r="D7" s="29">
         <v>2</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>108</v>
-      </c>
       <c r="H7" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="41" t="s">
+      <c r="J7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
+      <c r="C8" s="90">
+        <v>43871</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="29">
+        <v>2</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="29">
+        <v>2</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="33" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
+      <c r="C11" s="44">
+        <v>43873</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -3241,7 +4352,7 @@
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -3256,7 +4367,7 @@
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -3271,7 +4382,7 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -3286,7 +4397,7 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -3301,7 +4412,7 @@
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -3316,7 +4427,7 @@
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -3331,7 +4442,7 @@
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -3343,16 +4454,21 @@
       <c r="L19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
@@ -3377,7 +4493,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3417,25 +4533,25 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="50"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -3450,7 +4566,7 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -3465,7 +4581,7 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -3480,7 +4596,7 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -3495,7 +4611,7 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -3510,7 +4626,7 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -3525,7 +4641,7 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -3540,7 +4656,7 @@
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -3555,7 +4671,7 @@
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -3570,7 +4686,7 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -3585,7 +4701,7 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -3600,7 +4716,7 @@
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -3615,7 +4731,7 @@
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -3630,7 +4746,7 @@
       <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -3642,13 +4758,13 @@
       <c r="L19" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3656,7 +4772,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="6" r:id="rId1"/>
@@ -14,12 +14,15 @@
     <sheet name="RF V2.0" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Issue list'!$B$4:$J$4</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="181">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -453,10 +456,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>바람이 PCB 양쪽으로 빠질수 있도록 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>온도 센서 위치 수정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -688,6 +687,79 @@
   </si>
   <si>
     <t>2/12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람이 PCB 양쪽으로 빠질수 있도록 수정 -  도면 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 size 부품을 모두 3216 size로 변경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내압 및 W 상향 조정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C42,C17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47uF/63V</t>
+  </si>
+  <si>
+    <t>47uF/100V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ø</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> size에 맞는 내압으로 변경</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U10의 PW_PWM의 출력이 3.3V 이다.
+ - 5V pull-up이고, U10의 Vcc가 5V 이므로 출력이 5V 이어야 한다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PWR PCB 연결시 5V 출력이 나옴 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +771,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;#&quot;00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +979,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1801,7 +1886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1934,21 +2019,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2036,52 +2106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,11 +2158,89 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2518,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2530,571 +2633,694 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="68" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="108"/>
-      <c r="C3" s="109">
+    <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="88"/>
+      <c r="C3" s="89">
         <v>1</v>
       </c>
-      <c r="D3" s="112">
+      <c r="D3" s="92">
         <v>2</v>
       </c>
-      <c r="E3" s="112">
+      <c r="E3" s="92">
         <v>3</v>
       </c>
-      <c r="F3" s="109">
+      <c r="F3" s="89">
         <v>4</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G3" s="89">
         <v>5</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="90">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="70" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="65">
+        <v>1</v>
+      </c>
+      <c r="M3" s="65">
+        <v>2</v>
+      </c>
+      <c r="N3" s="65">
+        <v>3</v>
+      </c>
+      <c r="O3" s="65">
+        <v>4</v>
+      </c>
+      <c r="P3" s="65">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="C4" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="D4" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="64"/>
+      <c r="K4" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="107" t="s">
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="82" t="s">
+      <c r="C5" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="56">
+      <c r="E6" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="51">
         <v>0.15</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="G6" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="N6" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="56">
-        <v>0.15</v>
-      </c>
-      <c r="G6" s="56">
-        <v>0.15</v>
-      </c>
-      <c r="H6" s="55">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="66">
+      <c r="O6" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="61">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="61">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="61">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="60">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="64">
+      <c r="K7" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="59">
         <v>11.99</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="96">
         <v>11.98</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="96">
         <v>12</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="59">
         <v>11.98</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="59">
         <v>11.98</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="58">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="64">
+      <c r="K8" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="59">
         <f t="shared" ref="C9:H9" si="0">C7*C8</f>
         <v>0.83930000000000005</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="96">
         <f t="shared" si="0"/>
         <v>0.83860000000000012</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="96">
         <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="59">
         <f t="shared" si="0"/>
         <v>0.83860000000000012</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="59">
         <f t="shared" si="0"/>
         <v>0.83860000000000012</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="58">
         <f t="shared" si="0"/>
         <v>0.83860000000000012</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="64">
+      <c r="K9" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="59">
         <v>5.03</v>
       </c>
-      <c r="D10" s="116">
+      <c r="D10" s="96">
         <v>5.04</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="96">
         <v>5.01</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="59">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="59">
         <v>5.0199999999999996</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="58">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="64">
+      <c r="K10" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54">
+        <v>12.13</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="53"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="59">
         <v>3.2909999999999999</v>
       </c>
-      <c r="D11" s="116">
+      <c r="D11" s="96">
         <v>3.2829999999999999</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="96">
         <v>3.31</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="59">
         <v>3.28</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="59">
         <v>3.31</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="58">
         <v>3.3050000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="64">
+      <c r="K11" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54">
+        <v>-12.38</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="53"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="59">
         <v>3.29</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="96">
         <v>3.28</v>
       </c>
-      <c r="E12" s="116">
+      <c r="E12" s="96">
         <v>3.306</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="59">
         <v>3.28</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="59">
         <v>3.31</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="58">
         <v>3.3029999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="59" t="s">
+      <c r="K12" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="53"/>
+    </row>
+    <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="77"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>114</v>
+      <c r="C18" s="51"/>
+      <c r="D18" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="70"/>
+      <c r="C21" s="65">
+        <v>1</v>
+      </c>
+      <c r="D21" s="65">
+        <v>2</v>
+      </c>
+      <c r="E21" s="65">
+        <v>3</v>
+      </c>
+      <c r="F21" s="65">
+        <v>4</v>
+      </c>
+      <c r="G21" s="65">
+        <v>5</v>
+      </c>
+      <c r="H21" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="74" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="75"/>
-      <c r="C21" s="70">
-        <v>1</v>
-      </c>
-      <c r="D21" s="70">
-        <v>2</v>
-      </c>
-      <c r="E21" s="70">
-        <v>3</v>
-      </c>
-      <c r="F21" s="70">
-        <v>4</v>
-      </c>
-      <c r="G21" s="70">
-        <v>5</v>
-      </c>
-      <c r="H21" s="69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="79" t="s">
+      <c r="C23" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="102"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="123" t="s">
+      <c r="C24" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="59" t="s">
+      <c r="C25" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="100"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="121" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59">
-        <v>12.13</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="58"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="121" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59">
-        <v>-12.38</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="58"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="58"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="82"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="55"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3105,17 +3331,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
     <col min="7" max="7" width="43.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62.25" style="1" bestFit="1" customWidth="1"/>
@@ -3134,7 +3360,7 @@
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="126" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -3189,29 +3415,29 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="83">
+      <c r="B6" s="78">
         <v>2</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="79">
         <v>43857</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="86" t="s">
+      <c r="F6" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
@@ -3261,7 +3487,7 @@
         <v>53</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -3269,7 +3495,7 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="108">
         <v>43868</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -3298,7 +3524,7 @@
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="30" t="s">
         <v>54</v>
       </c>
@@ -3325,7 +3551,7 @@
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="30" t="s">
         <v>54</v>
       </c>
@@ -3349,20 +3575,20 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="108">
         <v>43869</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>13</v>
+      <c r="F12" s="105" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>79</v>
@@ -3378,17 +3604,17 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="105" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="29" t="s">
@@ -3405,23 +3631,23 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="29" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="29" t="s">
@@ -3435,32 +3661,34 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="111">
         <v>43870</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
@@ -3471,68 +3699,94 @@
         <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="28">
         <v>13</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="106">
         <v>43873</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="C18" s="12">
+        <v>43874</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+    <row r="19" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="127">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
+      <c r="C19" s="128">
+        <v>43875</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="130" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3543,7 +3797,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3554,7 +3808,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3563,18 +3817,107 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="B4:J4"/>
   <mergeCells count="3">
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C14"/>
@@ -3654,7 +3997,7 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="117">
         <v>43866</v>
       </c>
       <c r="D5" s="24">
@@ -3682,14 +4025,14 @@
         <v>32</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="30">
         <v>2</v>
       </c>
@@ -3715,21 +4058,21 @@
         <v>38</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="118">
         <v>43868</v>
       </c>
       <c r="D7" s="30">
         <v>5</v>
       </c>
-      <c r="E7" s="106" t="s">
-        <v>156</v>
+      <c r="E7" s="86" t="s">
+        <v>155</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>60</v>
@@ -3750,14 +4093,14 @@
         <v>68</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
@@ -3783,17 +4126,17 @@
         <v>68</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="108">
         <v>43869</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="114">
         <v>2</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -3805,28 +4148,28 @@
       <c r="G9" s="30">
         <v>470</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="113" t="s">
         <v>98</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="98"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="30" t="s">
         <v>73</v>
       </c>
@@ -3836,20 +4179,20 @@
       <c r="G10" s="30">
         <v>47</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="96"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="113"/>
       <c r="L10" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="98"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="30" t="s">
         <v>74</v>
       </c>
@@ -3859,20 +4202,20 @@
       <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="96"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="113"/>
       <c r="L11" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="98"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="30" t="s">
         <v>75</v>
       </c>
@@ -3882,20 +4225,20 @@
       <c r="G12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="96"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="99"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="30" t="s">
         <v>92</v>
       </c>
@@ -3905,19 +4248,19 @@
       <c r="G13" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="96"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="30">
         <v>4</v>
       </c>
@@ -3933,8 +4276,8 @@
       <c r="H14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>113</v>
+      <c r="I14" s="47" t="s">
+        <v>112</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>99</v>
@@ -3943,7 +4286,7 @@
         <v>99</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -4042,7 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4106,14 +4449,14 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="121">
         <v>43866</v>
       </c>
       <c r="D5" s="23">
         <v>3</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>40</v>
@@ -4134,21 +4477,21 @@
         <v>32</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="29">
         <v>4</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -4167,7 +4510,7 @@
         <v>38</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -4183,10 +4526,10 @@
       <c r="E7" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="48" t="s">
         <v>105</v>
       </c>
       <c r="H7" s="29" t="s">
@@ -4202,100 +4545,100 @@
         <v>32</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="108">
         <v>43871</v>
       </c>
       <c r="D8" s="29">
         <v>2</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="G8" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="H8" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="I8" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="50" t="s">
-        <v>145</v>
+      <c r="K8" s="45" t="s">
+        <v>144</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="29">
         <v>2</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="105" t="s">
-        <v>145</v>
+      <c r="I9" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="124" t="s">
+        <v>144</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="29">
         <v>2</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
+      <c r="E10" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="123"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
       <c r="L10" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -4308,29 +4651,29 @@
       <c r="D11" s="29">
         <v>2</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="54" t="s">
+      <c r="H11" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>168</v>
+      <c r="J11" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -4473,7 +4816,7 @@
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4533,19 +4876,37 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="45">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="107">
+        <v>43874</v>
+      </c>
+      <c r="D5" s="23">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
@@ -4557,9 +4918,9 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -4572,9 +4933,9 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -4587,9 +4948,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -4602,9 +4963,9 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -4617,9 +4978,9 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -4632,9 +4993,9 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -4647,9 +5008,9 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -4662,9 +5023,9 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -4677,9 +5038,9 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -4692,9 +5053,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -4707,9 +5068,9 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -4722,9 +5083,9 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -4737,9 +5098,9 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4752,9 +5113,9 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="11"/>
     </row>
   </sheetData>

--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200208.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357C9C3D-7549-4387-84F9-B49D9BC1AA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Issue list'!$B$4:$J$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="182">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -762,11 +771,15 @@
     <t xml:space="preserve">PWR PCB 연결시 5V 출력이 나옴 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>L6 PCB library size가 작음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;#&quot;00"/>
@@ -2167,6 +2180,30 @@
     <xf numFmtId="14" fontId="0" fillId="34" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2217,75 +2254,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="20% - 강조색1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색1 2" xfId="53"/>
+    <cellStyle name="20% - 강조색1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - 강조색2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2 2" xfId="56"/>
+    <cellStyle name="20% - 강조색2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - 강조색3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3 2" xfId="59"/>
+    <cellStyle name="20% - 강조색3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - 강조색4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4 2" xfId="62"/>
+    <cellStyle name="20% - 강조색4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - 강조색5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5 2" xfId="65"/>
+    <cellStyle name="20% - 강조색5 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - 강조색6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6 2" xfId="68"/>
+    <cellStyle name="20% - 강조색6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - 강조색1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1 2" xfId="54"/>
+    <cellStyle name="40% - 강조색1 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - 강조색2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2 2" xfId="57"/>
+    <cellStyle name="40% - 강조색2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - 강조색3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3 2" xfId="60"/>
+    <cellStyle name="40% - 강조색3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - 강조색4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4 2" xfId="63"/>
+    <cellStyle name="40% - 강조색4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - 강조색5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5 2" xfId="66"/>
+    <cellStyle name="40% - 강조색5 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - 강조색6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6 2" xfId="69"/>
+    <cellStyle name="40% - 강조색6 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - 강조색1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1 2" xfId="45"/>
-    <cellStyle name="60% - 강조색1 3" xfId="55"/>
+    <cellStyle name="60% - 강조색1 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - 강조색1 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="60% - 강조색2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2 2" xfId="46"/>
-    <cellStyle name="60% - 강조색2 3" xfId="58"/>
+    <cellStyle name="60% - 강조색2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - 강조색2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% - 강조색3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3 2" xfId="47"/>
-    <cellStyle name="60% - 강조색3 3" xfId="61"/>
+    <cellStyle name="60% - 강조색3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="60% - 강조색3 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="60% - 강조색4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4 2" xfId="48"/>
-    <cellStyle name="60% - 강조색4 3" xfId="64"/>
+    <cellStyle name="60% - 강조색4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="60% - 강조색4 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% - 강조색5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5 2" xfId="49"/>
-    <cellStyle name="60% - 강조색5 3" xfId="67"/>
+    <cellStyle name="60% - 강조색5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="60% - 강조색5 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="60% - 강조색6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6 2" xfId="50"/>
-    <cellStyle name="60% - 강조색6 3" xfId="70"/>
+    <cellStyle name="60% - 강조색6 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="60% - 강조색6 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="강조색1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="21" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="25" builtinId="37" customBuiltin="1"/>
@@ -2295,10 +2308,10 @@
     <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모 2" xfId="42"/>
-    <cellStyle name="메모 3" xfId="52"/>
+    <cellStyle name="메모 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="메모 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="보통 2" xfId="44"/>
+    <cellStyle name="보통 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="설명 텍스트" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -2309,12 +2322,12 @@
     <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 5" xfId="43"/>
+    <cellStyle name="제목 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="41"/>
-    <cellStyle name="표준 3" xfId="51"/>
+    <cellStyle name="표준 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="표준 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2377,7 +2390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2410,9 +2423,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2445,6 +2475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2620,20 +2667,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="67" t="s">
         <v>131</v>
       </c>
@@ -2641,7 +2690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="88"/>
       <c r="C3" s="89">
         <v>1</v>
@@ -2681,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="66" t="s">
         <v>130</v>
       </c>
@@ -2709,7 +2758,7 @@
       <c r="P4" s="72"/>
       <c r="Q4" s="73"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="57" t="s">
         <v>127</v>
       </c>
@@ -2756,7 +2805,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="77" t="s">
         <v>156</v>
       </c>
@@ -2800,7 +2849,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B7" s="62" t="s">
         <v>125</v>
       </c>
@@ -2844,7 +2893,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="57" t="s">
         <v>124</v>
       </c>
@@ -2888,7 +2937,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B9" s="57" t="s">
         <v>123</v>
       </c>
@@ -2938,7 +2987,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="57" t="s">
         <v>122</v>
       </c>
@@ -2972,7 +3021,7 @@
       <c r="P10" s="54"/>
       <c r="Q10" s="53"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B11" s="57" t="s">
         <v>121</v>
       </c>
@@ -3006,7 +3055,7 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="53"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="57" t="s">
         <v>120</v>
       </c>
@@ -3040,7 +3089,7 @@
       <c r="P12" s="54"/>
       <c r="Q12" s="53"/>
     </row>
-    <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="57" t="s">
         <v>119</v>
       </c>
@@ -3070,7 +3119,7 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="56" t="s">
         <v>118</v>
       </c>
@@ -3091,7 +3140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="56" t="s">
         <v>117</v>
       </c>
@@ -3112,7 +3161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="55" t="s">
         <v>116</v>
       </c>
@@ -3133,7 +3182,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="55" t="s">
         <v>115</v>
       </c>
@@ -3154,7 +3203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="52" t="s">
         <v>114</v>
       </c>
@@ -3175,12 +3224,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="68" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="70"/>
       <c r="C21" s="65">
         <v>1</v>
@@ -3201,7 +3250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="63" t="s">
         <v>130</v>
       </c>
@@ -3214,7 +3263,7 @@
       <c r="G22" s="72"/>
       <c r="H22" s="73"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="74" t="s">
         <v>133</v>
       </c>
@@ -3228,7 +3277,7 @@
       <c r="H23" s="104"/>
       <c r="I23" s="102"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="55" t="s">
         <v>134</v>
       </c>
@@ -3241,7 +3290,7 @@
       <c r="G24" s="54"/>
       <c r="H24" s="53"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="55" t="s">
         <v>137</v>
       </c>
@@ -3254,7 +3303,7 @@
       <c r="G25" s="54"/>
       <c r="H25" s="53"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="83" t="s">
         <v>102</v>
       </c>
@@ -3267,7 +3316,7 @@
       <c r="G26" s="54"/>
       <c r="H26" s="53"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="84" t="s">
         <v>154</v>
       </c>
@@ -3280,7 +3329,7 @@
       <c r="G27" s="69"/>
       <c r="H27" s="100"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="101" t="s">
         <v>159</v>
       </c>
@@ -3291,7 +3340,7 @@
       <c r="G28" s="54"/>
       <c r="H28" s="53"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="101" t="s">
         <v>160</v>
       </c>
@@ -3302,7 +3351,7 @@
       <c r="G29" s="54"/>
       <c r="H29" s="53"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="101" t="s">
         <v>161</v>
       </c>
@@ -3313,7 +3362,7 @@
       <c r="G30" s="54"/>
       <c r="H30" s="53"/>
     </row>
-    <row r="31" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="77"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -3330,37 +3379,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" style="108" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="43.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="109" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -3385,7 +3434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -3414,7 +3463,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="78">
         <v>2</v>
       </c>
@@ -3439,7 +3488,7 @@
       <c r="I6" s="81"/>
       <c r="J6" s="82"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -3464,7 +3513,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -3491,11 +3540,11 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="116">
         <v>43868</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -3520,11 +3569,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="109"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="30" t="s">
         <v>54</v>
       </c>
@@ -3547,11 +3596,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="30" t="s">
         <v>54</v>
       </c>
@@ -3574,11 +3623,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="116">
         <v>43869</v>
       </c>
       <c r="D12" s="105" t="s">
@@ -3603,11 +3652,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="109"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="105" t="s">
         <v>10</v>
       </c>
@@ -3630,11 +3679,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="110"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="105" t="s">
         <v>89</v>
       </c>
@@ -3657,11 +3706,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="119">
         <v>43870</v>
       </c>
       <c r="D15" s="85" t="s">
@@ -3684,11 +3733,11 @@
       </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="112"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
@@ -3707,7 +3756,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="28">
         <v>13</v>
       </c>
@@ -3732,7 +3781,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -3757,45 +3806,55 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="127">
+    <row r="19" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B19" s="110">
         <v>15</v>
       </c>
-      <c r="C19" s="128">
+      <c r="C19" s="111">
         <v>43875</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="129" t="s">
+      <c r="E19" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="131" t="s">
+      <c r="H19" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="12">
+        <v>43876</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
       <c r="D21" s="5"/>
@@ -3806,7 +3865,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
       <c r="D22" s="5"/>
@@ -3817,7 +3876,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="12"/>
       <c r="D23" s="5"/>
@@ -3828,7 +3887,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
       <c r="D24" s="5"/>
@@ -3839,7 +3898,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
@@ -3850,7 +3909,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="12"/>
       <c r="D26" s="5"/>
@@ -3861,7 +3920,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
@@ -3872,7 +3931,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
       <c r="D28" s="5"/>
@@ -3883,7 +3942,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5"/>
@@ -3894,7 +3953,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5"/>
@@ -3905,7 +3964,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="8"/>
       <c r="C31" s="41"/>
       <c r="D31" s="9"/>
@@ -3917,7 +3976,7 @@
       <c r="J31" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:J4"/>
+  <autoFilter ref="B4:J4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C14"/>
@@ -3930,35 +3989,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -3993,11 +4052,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="125">
         <v>43866</v>
       </c>
       <c r="D5" s="24">
@@ -4028,11 +4087,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="30">
         <v>2</v>
       </c>
@@ -4061,11 +4120,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="126">
         <v>43868</v>
       </c>
       <c r="D7" s="30">
@@ -4096,11 +4155,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
@@ -4129,14 +4188,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="116">
         <v>43869</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="122">
         <v>2</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -4148,28 +4207,28 @@
       <c r="G9" s="30">
         <v>470</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="120" t="s">
+      <c r="J9" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="113" t="s">
+      <c r="K9" s="121" t="s">
         <v>98</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="115"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="30" t="s">
         <v>73</v>
       </c>
@@ -4179,20 +4238,20 @@
       <c r="G10" s="30">
         <v>47</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="113"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="121"/>
       <c r="L10" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="115"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="30" t="s">
         <v>74</v>
       </c>
@@ -4202,20 +4261,20 @@
       <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="113"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="121"/>
       <c r="L11" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="115"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="30" t="s">
         <v>75</v>
       </c>
@@ -4225,20 +4284,20 @@
       <c r="G12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="113"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="30" t="s">
         <v>92</v>
       </c>
@@ -4248,19 +4307,19 @@
       <c r="G13" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="113"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="121"/>
       <c r="L13" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="110"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="30">
         <v>4</v>
       </c>
@@ -4289,7 +4348,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -4304,7 +4363,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -4319,7 +4378,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -4334,7 +4393,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -4349,7 +4408,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -4382,35 +4441,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -4445,11 +4504,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="121">
+      <c r="C5" s="129">
         <v>43866</v>
       </c>
       <c r="D5" s="23">
@@ -4480,11 +4539,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="29">
         <v>4</v>
       </c>
@@ -4513,7 +4572,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="28">
         <v>3</v>
       </c>
@@ -4548,11 +4607,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="116">
         <v>43871</v>
       </c>
       <c r="D8" s="29">
@@ -4583,11 +4642,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="29">
         <v>2</v>
       </c>
@@ -4600,27 +4659,27 @@
       <c r="G9" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="122" t="s">
+      <c r="H9" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="124" t="s">
+      <c r="J9" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="132" t="s">
         <v>144</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="29">
         <v>2</v>
       </c>
@@ -4633,15 +4692,15 @@
       <c r="G10" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
       <c r="L10" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="28">
         <v>7</v>
       </c>
@@ -4676,7 +4735,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -4691,7 +4750,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -4706,7 +4765,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -4721,7 +4780,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -4736,7 +4795,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -4751,7 +4810,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -4766,7 +4825,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -4781,7 +4840,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -4812,35 +4871,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
@@ -4875,7 +4934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>1</v>
       </c>
@@ -4908,7 +4967,7 @@
       </c>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -4923,7 +4982,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -4938,7 +4997,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -4953,7 +5012,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -4968,7 +5027,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -4983,7 +5042,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -4998,7 +5057,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -5013,7 +5072,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -5028,7 +5087,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -5043,7 +5102,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -5058,7 +5117,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -5073,7 +5132,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -5088,7 +5147,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -5103,7 +5162,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="8">
         <v>15</v>
       </c>
@@ -5126,12 +5185,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
